--- a/用例数据/深A/权证行权/股权激励/T日/测试结果.xlsx
+++ b/用例数据/深A/权证行权/股权激励/T日/测试结果.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
     <sheet name="tradinglog" sheetId="2" r:id="rId2"/>
-    <sheet name="stklistextend" sheetId="3" r:id="rId3"/>
+    <sheet name="stklistextend2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="291">
   <si>
     <t>EXCHID</t>
   </si>
@@ -873,6 +873,27 @@
   </si>
   <si>
     <t>EXTEND</t>
+  </si>
+  <si>
+    <t>1540.0000</t>
+  </si>
+  <si>
+    <t>0.0770</t>
+  </si>
+  <si>
+    <t>200000.0000</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>18800.0000</t>
+  </si>
+  <si>
+    <t>0.9400</t>
+  </si>
+  <si>
+    <t>20230224000000</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1222,7 @@
   <dimension ref="A1:CH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1495,13 +1516,13 @@
         <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>95</v>
@@ -1546,7 +1567,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>92</v>
@@ -1590,6 +1611,9 @@
       <c r="AO2" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>92</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>93</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>95</v>
@@ -1752,13 +1776,13 @@
         <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>95</v>
@@ -1803,7 +1827,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>92</v>
@@ -1847,6 +1871,9 @@
       <c r="AO3" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP3" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="AQ3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1923,7 +1950,7 @@
         <v>93</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>95</v>
@@ -2009,13 +2036,13 @@
         <v>92</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>95</v>
@@ -2060,7 +2087,7 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>92</v>
@@ -2104,6 +2131,9 @@
       <c r="AO4" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP4" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="AQ4" s="1" t="s">
         <v>92</v>
       </c>
@@ -2180,7 +2210,7 @@
         <v>93</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>95</v>
@@ -5698,101 +5728,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K2" s="1" t="s">
         <v>92</v>
       </c>
@@ -5805,44 +5838,47 @@
       <c r="N2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K3" s="1" t="s">
         <v>92</v>
       </c>
@@ -5855,44 +5891,47 @@
       <c r="N3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K4" s="1" t="s">
         <v>92</v>
       </c>
@@ -5905,25 +5944,28 @@
       <c r="N4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
